--- a/data/trans_camb/P1802_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1802_2016_2023-Provincia-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.373835524530375</v>
+        <v>7.373835524530381</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>12.16244579974028</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1578232541521693</v>
+        <v>0.2384193536301398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.061084041324934</v>
+        <v>4.888237725955575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.016702514054829</v>
+        <v>4.932226909579163</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.17430327140565</v>
+        <v>14.49264226313537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.74373032902188</v>
+        <v>18.7430276491893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.5917870155929</v>
+        <v>14.78535619037637</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.359606485784011</v>
+        <v>0.3596064857840113</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.4765292483477808</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.003035806148280921</v>
+        <v>0.007088694745332007</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1760794532413879</v>
+        <v>0.1623705826057914</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1927121326795221</v>
+        <v>0.1913591936114103</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8472946313976331</v>
+        <v>0.8515255528604402</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.885037339594734</v>
+        <v>0.8844574956282039</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6993297780917067</v>
+        <v>0.7340133203102008</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.872830185099373</v>
+        <v>-8.8378435509265</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.980626360204721</v>
+        <v>-7.113587712838093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.685812585908202</v>
+        <v>-6.667470748093497</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2641545122492592</v>
+        <v>0.2695150888470698</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.218168947495845</v>
+        <v>2.103116068085365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1643435922459715</v>
+        <v>-0.2119736695811377</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4958556384743321</v>
+        <v>-0.5106055251084084</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3196402627495322</v>
+        <v>-0.3169867689811859</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3534807539518307</v>
+        <v>-0.343479684380786</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0168581369593588</v>
+        <v>0.02511677820940337</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1279316365424729</v>
+        <v>0.1240694169040341</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.01155155283036002</v>
+        <v>-0.01067221250243426</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.752876236324578</v>
+        <v>9.582902845992612</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.87287264217635</v>
+        <v>11.62127317023328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.96492559258603</v>
+        <v>12.12004128934143</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.91444708251593</v>
+        <v>20.13642904791845</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.99671819596449</v>
+        <v>21.81254418690326</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.35274612949048</v>
+        <v>19.19567478347661</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.026563857461233</v>
+        <v>1.005096211835829</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.8435650465522814</v>
+        <v>0.9287873369558995</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.116970085588059</v>
+        <v>1.121451295974153</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.696960575402698</v>
+        <v>3.565177073609667</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.82134293282594</v>
+        <v>3.222085744079665</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.754522512068864</v>
+        <v>2.697851450710734</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>-4.541421447737709</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-7.743946609278504</v>
+        <v>-7.743946609278502</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.178373836647272</v>
+        <v>-6.178373836647275</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.08187685805781</v>
+        <v>-10.60887075066183</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.60873564495597</v>
+        <v>-12.79929621203175</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.902702261592149</v>
+        <v>-10.30231819933536</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.881350877883873</v>
+        <v>1.348591527121896</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.491834091340372</v>
+        <v>-2.593587008911356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.19332028059612</v>
+        <v>-2.040608923598799</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>-0.2406520572881576</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.3500521926311417</v>
+        <v>-0.3500521926311416</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3008855515706668</v>
+        <v>-0.300885551570667</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4698559167952501</v>
+        <v>-0.4845817754918516</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4957562878038221</v>
+        <v>-0.5092003711630989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.43744070185863</v>
+        <v>-0.4480441568781407</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1411724013829035</v>
+        <v>0.1042550279008626</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1175116831241345</v>
+        <v>-0.1314649453803299</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1216361460332879</v>
+        <v>-0.1045549303434252</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-6.963527276229965</v>
+        <v>-6.963527276229962</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-12.82372954981045</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.25724927507508</v>
+        <v>-13.91943431724151</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-18.7273603093088</v>
+        <v>-19.10117409519965</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.47572290257852</v>
+        <v>-14.42070665182983</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09923327695727925</v>
+        <v>-0.9103538665867914</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.449718354971045</v>
+        <v>-7.662348835098531</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.754823578469873</v>
+        <v>-5.766077763684104</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.3721702882909984</v>
+        <v>-0.3721702882909982</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.698309347186845</v>
+        <v>-0.6983093471868451</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5419762015974563</v>
+        <v>-0.5419762015974564</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.592355234849253</v>
+        <v>-0.600983331606439</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8123352673967107</v>
+        <v>-0.8019901775367926</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.674670986195669</v>
+        <v>-0.6752636821819863</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03057163807416835</v>
+        <v>-0.02766922275184429</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.5185052794589912</v>
+        <v>-0.5182408144275752</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3665424637069727</v>
+        <v>-0.3580915778048074</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>3.384943810455521</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.7227869580176599</v>
+        <v>-0.722786958017671</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1.247774286277337</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.700355697669853</v>
+        <v>-3.034264550323767</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.923810959186054</v>
+        <v>-7.414750474850547</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.167324654165835</v>
+        <v>-3.097705066748205</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.144736572124071</v>
+        <v>8.81266173983853</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.963007270450847</v>
+        <v>4.917528993300685</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.346083479895607</v>
+        <v>5.318116966126595</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>0.2508033169152807</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.03534434430547987</v>
+        <v>-0.03534434430548041</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.07323513680018796</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1593606753411974</v>
+        <v>-0.1751428743118332</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2845351483186316</v>
+        <v>-0.2981082065357625</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1648792406967872</v>
+        <v>-0.1618605787918338</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8493080118743729</v>
+        <v>0.8551493381328857</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3713289655247123</v>
+        <v>0.2974540480737018</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.361663973477276</v>
+        <v>0.3706904983333352</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>9.85793239088731</v>
+        <v>9.857932390887312</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>10.33339345573923</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10.13740053224665</v>
+        <v>10.13740053224664</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>5.906686762356603</v>
+        <v>5.556480465541791</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.939960468084095</v>
+        <v>6.231058923461136</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7.201492142936976</v>
+        <v>7.185340964755098</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.26348604809976</v>
+        <v>13.82198262526027</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.29874130866147</v>
+        <v>14.37465962398073</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.02171945557183</v>
+        <v>13.14502954088887</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.959589918034914</v>
+        <v>0.9595899180349142</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.6231158906709581</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.7503872862219227</v>
+        <v>0.7503872862219224</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4595086367067908</v>
+        <v>0.4504250002561351</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3161384126052308</v>
+        <v>0.3361521803462065</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4921395169041077</v>
+        <v>0.4780976958891104</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.649889609746192</v>
+        <v>1.561367570167016</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.004938680448452</v>
+        <v>0.9959930507588846</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.102864130844693</v>
+        <v>1.089189704752574</v>
       </c>
     </row>
     <row r="46">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-11.71961324808264</v>
+        <v>-11.49454812462151</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-15.99392550715856</v>
+        <v>-15.95946550511695</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.76152396623944</v>
+        <v>-13.17951509674753</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-5.391662291743917</v>
+        <v>-5.591760521826986</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-9.081606428007269</v>
+        <v>-9.183201019332566</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-8.238167900182335</v>
+        <v>-8.311179208761292</v>
       </c>
     </row>
     <row r="49">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7123163004102758</v>
+        <v>-0.7013080203254578</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.717128988306912</v>
+        <v>-0.7128030040599266</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6834142299947911</v>
+        <v>-0.6935100424633428</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4271808368426132</v>
+        <v>-0.4286718492238991</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.5190003549035676</v>
+        <v>-0.5228409073728467</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5228834984891699</v>
+        <v>-0.5198714079018528</v>
       </c>
     </row>
     <row r="52">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.7585263113171703</v>
+        <v>0.7585263113171675</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>-0.1315753454410151</v>
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.112768685596001</v>
+        <v>-0.922760121898244</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.850768553271403</v>
+        <v>-1.986950078600362</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.8622283012892773</v>
+        <v>-0.8209237441560768</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.340887410366867</v>
+        <v>2.516185953461763</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.672971201187404</v>
+        <v>1.566874063322002</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.503131314155484</v>
+        <v>1.618527845046131</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C55" s="6" t="n">
-        <v>0.05280292990251712</v>
+        <v>0.05280292990251692</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>-0.006968495156830734</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.07336041337925076</v>
+        <v>-0.06362302709752476</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.09357393304643122</v>
+        <v>-0.1010865121643726</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.04992034685823497</v>
+        <v>-0.04779260172972513</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1753645486627207</v>
+        <v>0.182041415937175</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.09329819748185082</v>
+        <v>0.08779717761150303</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.09399019980392755</v>
+        <v>0.1005003965506433</v>
       </c>
     </row>
     <row r="58">
